--- a/InputFiles/CCDI/phs002430-sample_20240216_T101424.xlsx
+++ b/InputFiles/CCDI/phs002430-sample_20240216_T101424.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\Desktop\autom\ccdi_data\1.7.2\phs002430\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\qa-data-validation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FF99F4-DD9A-4293-B670-1B953A7CC88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937F3963-B22C-4CF5-AE84-86A1540C42F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Raw_Samples" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Raw_Samples!$A$1:$X$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Raw_Samples!$A$1:$X$555</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -5383,13 +5383,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X555"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A487" workbookViewId="0">
-      <selection activeCell="Y552" sqref="Y552"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="21" max="21" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="21" max="21" width="32.54296875" customWidth="1"/>
     <col min="22" max="22" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15.81640625" bestFit="1" customWidth="1"/>
@@ -29828,6 +29829,9 @@
       <c r="W535" t="s">
         <v>1496</v>
       </c>
+      <c r="X535">
+        <v>52</v>
+      </c>
     </row>
     <row r="536" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
@@ -29869,6 +29873,9 @@
       <c r="W536" t="s">
         <v>1496</v>
       </c>
+      <c r="X536">
+        <v>152</v>
+      </c>
     </row>
     <row r="537" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
@@ -29910,6 +29917,9 @@
       <c r="W537" t="s">
         <v>1496</v>
       </c>
+      <c r="X537">
+        <v>186</v>
+      </c>
     </row>
     <row r="538" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
@@ -29951,6 +29961,9 @@
       <c r="W538" t="s">
         <v>1496</v>
       </c>
+      <c r="X538">
+        <v>384</v>
+      </c>
     </row>
     <row r="539" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
@@ -29992,6 +30005,9 @@
       <c r="W539" t="s">
         <v>1496</v>
       </c>
+      <c r="X539">
+        <v>456</v>
+      </c>
     </row>
     <row r="540" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
@@ -30033,6 +30049,9 @@
       <c r="W540" t="s">
         <v>1496</v>
       </c>
+      <c r="X540">
+        <v>457</v>
+      </c>
     </row>
     <row r="541" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
@@ -30074,6 +30093,9 @@
       <c r="W541" t="s">
         <v>1496</v>
       </c>
+      <c r="X541">
+        <v>525</v>
+      </c>
     </row>
     <row r="542" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
@@ -30115,6 +30137,9 @@
       <c r="W542" t="s">
         <v>1496</v>
       </c>
+      <c r="X542">
+        <v>526</v>
+      </c>
     </row>
     <row r="543" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
@@ -30156,6 +30181,9 @@
       <c r="W543" t="s">
         <v>1496</v>
       </c>
+      <c r="X543">
+        <v>742</v>
+      </c>
     </row>
     <row r="544" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
@@ -30197,8 +30225,11 @@
       <c r="W544" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="545" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X544">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="545" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>22</v>
       </c>
@@ -30238,8 +30269,11 @@
       <c r="W545" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="546" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X545">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="546" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>22</v>
       </c>
@@ -30279,8 +30313,11 @@
       <c r="W546" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="547" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X546">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="547" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>22</v>
       </c>
@@ -30320,8 +30357,11 @@
       <c r="W547" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="548" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X547">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="548" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>22</v>
       </c>
@@ -30359,7 +30399,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="549" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>22</v>
       </c>
@@ -30397,7 +30437,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="550" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>22</v>
       </c>
@@ -30435,7 +30475,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="551" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>22</v>
       </c>
@@ -30473,7 +30513,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="552" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>22</v>
       </c>
@@ -30511,7 +30551,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="553" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>22</v>
       </c>
@@ -30549,7 +30589,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="554" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>22</v>
       </c>
@@ -30587,7 +30627,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="555" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>22</v>
       </c>
